--- a/fhir/docs/ValueSet-nhsnotify-letter-category.xlsx
+++ b/fhir/docs/ValueSet-nhsnotify-letter-category.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/ValueSet/nhsnotify-letter-category</t>
+    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/docs/ValueSet/nhsnotify-letter-category</t>
   </si>
   <si>
     <t>Version</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T10:31:22+00:00</t>
+    <t>2025-09-30T11:01:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
